--- a/input/calorimetry/test_6.xlsx
+++ b/input/calorimetry/test_6.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="input_k_constants_log10" sheetId="2" r:id="rId1"/>
-    <sheet name="input_concentrations" sheetId="3" r:id="rId2"/>
-    <sheet name="component_name" sheetId="4" r:id="rId3"/>
-    <sheet name="heats" sheetId="5" r:id="rId4"/>
-    <sheet name="targets" sheetId="6" r:id="rId5"/>
-    <sheet name="input_stoich_coefficients" sheetId="1" r:id="rId6"/>
-    <sheet name="enthalpies" sheetId="7" r:id="rId7"/>
+    <sheet name="setup" sheetId="8" r:id="rId2"/>
+    <sheet name="input_concentrations" sheetId="3" r:id="rId3"/>
+    <sheet name="component_name" sheetId="4" r:id="rId4"/>
+    <sheet name="heats" sheetId="5" r:id="rId5"/>
+    <sheet name="targets" sheetId="6" r:id="rId6"/>
+    <sheet name="input_stoich_coefficients" sheetId="1" r:id="rId7"/>
+    <sheet name="enthalpies" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>lg_k</t>
   </si>
@@ -81,6 +82,15 @@
   </si>
   <si>
     <t>H2L</t>
+  </si>
+  <si>
+    <t>Calorimeter</t>
+  </si>
+  <si>
+    <t>DSC</t>
+  </si>
+  <si>
+    <t>Initial volume</t>
   </si>
 </sst>
 </file>
@@ -406,7 +416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -433,6 +443,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -677,7 +718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -697,7 +738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U5"/>
   <sheetViews>
@@ -1037,7 +1078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -1063,7 +1104,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -1111,7 +1152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>

--- a/input/calorimetry/test_6.xlsx
+++ b/input/calorimetry/test_6.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="input_k_constants_log10" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>lg_k</t>
   </si>
@@ -97,8 +97,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -130,10 +131,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -417,7 +419,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,12 +431,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>4.8</v>
       </c>
     </row>
   </sheetData>
@@ -446,7 +448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -478,7 +480,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,7 +510,7 @@
         <v>9.9999999999999998E-17</v>
       </c>
       <c r="B3">
-        <v>1E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -520,6 +522,7 @@
         <v>3.9933452232968824E-3</v>
       </c>
       <c r="D4" s="1"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -743,7 +746,7 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1080,23 +1083,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1157,7 +1154,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
